--- a/v5/other_exp/classification_except_aloi.xlsx
+++ b/v5/other_exp/classification_except_aloi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wp\Desktop\master\results\analysis_data\VIME_results_all\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\master\ensemble_github\experimental_data\v5\other_exp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBD2734-3935-4D90-AA70-9539AAAFEB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3A355A-38F3-4F50-B69A-A07A98A4D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="268">
   <si>
     <t>dataname:task_type</t>
   </si>
@@ -31,21 +31,6 @@
     <t>baseline</t>
   </si>
   <si>
-    <t>apply_attribute-prototype_num:5</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:10</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:50</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:100</t>
-  </si>
-  <si>
-    <t>apply_attribute-prototype_num:500</t>
-  </si>
-  <si>
     <t>adult:classification</t>
   </si>
   <si>
@@ -815,13 +800,45 @@
   </si>
   <si>
     <t>-2.64%</t>
+  </si>
+  <si>
+    <t>prototype_num:5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype_num:500</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_num:2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_num:4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_num:100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -833,22 +850,34 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -890,7 +919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -898,9 +927,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1200,20 +1230,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42:F47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="20.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1227,1275 +1257,1276 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="H8" t="s">
         <v>52</v>
-      </c>
-      <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="E9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E10" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H9" t="s">
+      <c r="F10" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="H11" s="3" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
         <v>98</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" t="s">
-        <v>100</v>
-      </c>
-      <c r="H16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" t="s">
-        <v>104</v>
-      </c>
-      <c r="G17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" t="s">
+        <v>150</v>
+      </c>
+      <c r="H28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+      <c r="G29" t="s">
+        <v>151</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" t="s">
         <v>138</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" t="s">
-        <v>143</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" t="s">
-        <v>144</v>
-      </c>
-      <c r="G24" t="s">
-        <v>100</v>
-      </c>
-      <c r="H24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>147</v>
-      </c>
-      <c r="B26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" t="s">
-        <v>148</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
-      </c>
-      <c r="F28" t="s">
-        <v>155</v>
-      </c>
-      <c r="G28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" t="s">
-        <v>156</v>
-      </c>
-      <c r="F29" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" t="s">
-        <v>156</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G31" s="2" t="s">
+      <c r="H32" t="s">
         <v>164</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" t="s">
-        <v>166</v>
-      </c>
-      <c r="D32" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F32" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" t="s">
-        <v>169</v>
-      </c>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
         <v>170</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D34" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E34" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="F34" s="2" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="G34" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="H34" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
         <v>176</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="E35" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="H35" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
+        <v>188</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
+        <v>194</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H39" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" t="s">
+        <v>162</v>
+      </c>
+      <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="C40" t="s">
-        <v>144</v>
-      </c>
-      <c r="D40" t="s">
-        <v>99</v>
-      </c>
-      <c r="E40" t="s">
-        <v>167</v>
-      </c>
-      <c r="F40" t="s">
-        <v>56</v>
-      </c>
       <c r="G40" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H40" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
+        <v>206</v>
+      </c>
+      <c r="E41" t="s">
+        <v>207</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+      <c r="H41" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="F41" t="s">
-        <v>102</v>
-      </c>
-      <c r="G41" t="s">
-        <v>211</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="F42" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="G42" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B42" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="H42" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D42" s="3" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
         <v>216</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="H43" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C44" t="s">
+        <v>222</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H45" s="3" t="s">
         <v>233</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
+        <v>234</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>245</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s">
         <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" t="s">
-        <v>101</v>
-      </c>
-      <c r="E48" t="s">
-        <v>252</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
-      </c>
-      <c r="G48" t="s">
-        <v>53</v>
-      </c>
-      <c r="H48" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C50" s="4">
         <v>2.666666666666667</v>
@@ -2518,28 +2549,28 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B51" t="s">
+        <v>254</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" t="s">
+        <v>256</v>
+      </c>
+      <c r="F51" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" t="s">
+        <v>258</v>
+      </c>
+      <c r="H51" t="s">
         <v>259</v>
-      </c>
-      <c r="C51" t="s">
-        <v>59</v>
-      </c>
-      <c r="D51" t="s">
-        <v>260</v>
-      </c>
-      <c r="E51" t="s">
-        <v>261</v>
-      </c>
-      <c r="F51" t="s">
-        <v>262</v>
-      </c>
-      <c r="G51" t="s">
-        <v>263</v>
-      </c>
-      <c r="H51" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
